--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIWeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIWeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="55">
   <si>
     <t>TC</t>
   </si>
@@ -188,6 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,48 +258,48 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,10 +313,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -473,7 +474,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -482,13 +483,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -498,7 +499,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -507,7 +508,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -516,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -526,12 +527,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -562,7 +563,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -581,7 +582,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -593,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -602,10 +603,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -689,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -704,13 +705,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -719,10 +720,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="82.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -748,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21.6" r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -902,12 +903,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -916,19 +917,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -969,7 +970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="28.8" r="2" s="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>53</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="3" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="4" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>53</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="5" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="6" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="7" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="8" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="9" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>53</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="28.8" r="10" s="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
@@ -1286,16 +1287,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1304,19 +1305,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="28.8" r="2" s="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>53</v>
       </c>
@@ -1400,8 +1401,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
+    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="90"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
   <si>
     <t>TC</t>
   </si>
@@ -182,12 +187,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -304,6 +312,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -351,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,9 +395,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,6 +447,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,22 +639,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -637,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -651,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -665,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -679,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="28.8" r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -690,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="57.6" r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row ht="60" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -711,22 +756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="82.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="82.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -749,7 +794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21.6" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -766,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -783,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -800,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -817,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -834,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -851,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -868,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -885,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
@@ -908,28 +953,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -970,7 +1015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.8" r="2" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="28.9" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>53</v>
       </c>
@@ -1005,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="3" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -1040,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="4" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>53</v>
       </c>
@@ -1075,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="5" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
@@ -1110,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="6" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>53</v>
       </c>
@@ -1145,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="7" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1180,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="8" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -1215,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="9" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>53</v>
       </c>
@@ -1250,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="10" s="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
@@ -1287,8 +1332,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A10"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A10" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
@@ -1296,28 +1341,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" activeCellId="1" sqref="H2 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1361,7 +1406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.8" r="2" s="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="28.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>53</v>
       </c>
@@ -1384,7 +1429,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>48</v>
@@ -1401,7 +1446,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="90"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIWeeklyCat_B" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIWeeklyCat_B" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -159,9 +159,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>Payroll Suite WeeklyCatB201718.xlsx</t>
@@ -195,8 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,48 +259,48 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -324,10 +317,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -362,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,7 +407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,7 +512,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -528,13 +521,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -544,7 +537,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -553,7 +546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -562,7 +555,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -572,12 +565,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -608,7 +601,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -627,7 +620,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -639,7 +632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,10 +641,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -735,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="60" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -750,13 +743,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,10 +758,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="82.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="82.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,7 +787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -948,33 +941,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1015,15 +1008,15 @@
         <v>14</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.9" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
@@ -1032,33 +1025,33 @@
         <v>43</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>19</v>
@@ -1067,33 +1060,33 @@
         <v>43</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -1102,33 +1095,33 @@
         <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
@@ -1137,33 +1130,33 @@
         <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
@@ -1172,33 +1165,33 @@
         <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>19</v>
@@ -1207,33 +1200,33 @@
         <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>19</v>
@@ -1242,33 +1235,33 @@
         <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
@@ -1277,33 +1270,33 @@
         <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>19</v>
@@ -1312,19 +1305,19 @@
         <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>5</v>
@@ -1332,37 +1325,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A10" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" activeCellId="1" sqref="H2 H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1394,7 +1387,7 @@
         <v>42</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1406,15 +1399,15 @@
         <v>14</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="28.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
@@ -1423,22 +1416,22 @@
         <v>43</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>5</v>
@@ -1446,8 +1439,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -84,33 +84,6 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 108</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 109</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -177,13 +150,40 @@
     <t>1</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Weekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 397</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 398</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 399</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 400</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 401</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 402</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 403</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 404</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 405</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NIWCB EMPLOYER</t>
+  </si>
+  <si>
+    <t>NIWCB_Payroll</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,16 +284,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -666,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -677,10 +674,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -691,10 +688,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -753,7 +750,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,8 +785,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
+      <c r="A2" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -805,8 +802,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
+      <c r="A3" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -822,8 +819,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
+      <c r="A4" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -839,8 +836,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
+      <c r="A5" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -856,8 +853,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
+      <c r="A6" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -873,8 +870,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
+      <c r="A7" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -890,8 +887,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
+      <c r="A8" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -907,8 +904,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
+      <c r="A9" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -924,8 +921,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
+      <c r="A10" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -949,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,34 +966,34 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>2</v>
@@ -1010,34 +1007,34 @@
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>5</v>
@@ -1045,34 +1042,34 @@
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>5</v>
@@ -1080,34 +1077,34 @@
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>5</v>
@@ -1115,34 +1112,34 @@
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>5</v>
@@ -1150,34 +1147,34 @@
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>5</v>
@@ -1185,34 +1182,34 @@
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>5</v>
@@ -1220,34 +1217,34 @@
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>5</v>
@@ -1255,34 +1252,34 @@
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>5</v>
@@ -1290,34 +1287,34 @@
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>5</v>
@@ -1325,11 +1322,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2:A10" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1337,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,37 +1353,37 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1401,37 +1397,37 @@
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>5</v>
@@ -1439,7 +1435,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIWeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIWeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -190,6 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,45 +260,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -314,10 +315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -352,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +510,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -518,13 +519,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -534,7 +535,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -543,7 +544,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -552,7 +553,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -562,12 +563,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -598,7 +599,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -617,7 +618,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -629,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -638,10 +639,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -725,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -740,13 +741,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -755,10 +756,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="82.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -784,7 +785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
@@ -938,12 +939,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,19 +953,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="28.9" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -1322,15 +1323,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A10" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1339,19 +1340,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1435,8 +1436,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIWeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIWeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -190,6 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,45 +260,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -314,10 +315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -352,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +510,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -518,13 +519,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -534,7 +535,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -543,7 +544,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -552,7 +553,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -562,12 +563,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -598,7 +599,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -617,7 +618,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -629,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -638,10 +639,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -725,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row ht="60" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -740,13 +741,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -755,10 +756,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="82.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -784,7 +785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
@@ -938,12 +939,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,19 +953,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="28.9" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>52</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -1322,15 +1323,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A10" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1339,19 +1340,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.45" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.5" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1435,8 +1436,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>